--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-composition-medicationlist.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-composition-medicationlist.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9032" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8773" uniqueCount="816">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}pml-composition-title:The PML composition title must be: 'Medikationsliste' in German or 'Liste de médication' in French or 'Elenco delle terapie farmacologiche' in Italian or 'Medication List' in English or titles in other languages are also allowed. {(language.startsWith('en') implies title = 'Medication List') and (language.startsWith('fr') implies title = 'Liste de médication') and (language.startsWith('de') implies title = 'Medikationsliste') and (language.startsWith('it') implies title = 'Elenco delle terapie farmacologiche')}</t>
   </si>
   <si>
     <t>Event</t>
@@ -433,7 +433,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -862,7 +862,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.typeCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.typeCode</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1437,7 +1437,7 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.confidentialityCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.confidentialityCode</t>
   </si>
   <si>
     <t>Composition.confidentiality.extension:confidentialityCode.value[x]:valueCodeableConcept.id</t>
@@ -1917,7 +1917,7 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>
@@ -2221,43 +2221,6 @@
     <t>According to the EPR ordonnance the PDF has to be in PDF/A-1 or PDF/A-2 format.</t>
   </si>
   <si>
-    <t>Composition.section:originalRepresentation.entry.id</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.extension</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.extension:narrativeLink</t>
-  </si>
-  <si>
-    <t>narrativeLink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {narrativeLink}
-</t>
-  </si>
-  <si>
-    <t>narrativeLink to img src attribute</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept (resource/element), as a url that is a reference to a portion of the narrative of a resource ([DomainResource.text](http://hl7.org/fhir/R4/narrative.html)).</t>
-  </si>
-  <si>
-    <t>It's also possible to link to the resource narrative using the [originalText extension](http://hl7.org/fhir/R4/extension-originaltext.html) which claims that the data is derived from the text provided or linked to.</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.reference</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.type</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.identifier</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.display</t>
-  </si>
-  <si>
     <t>Composition.section:originalRepresentation.emptyReason</t>
   </si>
   <si>
@@ -2331,11 +2294,11 @@
     <t>medicationStatement</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-medicationstatement-list)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-medicationstatement-list|http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-medicationstatement-changed-list)
 </t>
   </si>
   <si>
-    <t>MedicationStatement (from MTP)</t>
+    <t>MedicationStatement (from MTP or PADV)</t>
   </si>
   <si>
     <t>Composition.section:list.entry:medicationStatement.id</t>
@@ -2362,11 +2325,11 @@
     <t>medicationRequest</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-medicationrequest-list)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-medicationrequest-list|http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-medication-request-changed-list)
 </t>
   </si>
   <si>
-    <t>MedicationRequest (from PRE)</t>
+    <t>MedicationRequest (from PRE or PADV)</t>
   </si>
   <si>
     <t>Composition.section:list.entry:medicationRequest.id</t>
@@ -2906,7 +2869,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO243"/>
+  <dimension ref="A1:AO236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2915,15 +2878,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="99.5" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.84765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="103.26171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="63.05078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2934,27 +2897,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.53125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="57.25390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="70.4609375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -21668,7 +21631,7 @@
         <v>709</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21691,16 +21654,20 @@
         <v>79</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>107</v>
+        <v>674</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N161" s="2"/>
-      <c r="O161" s="2"/>
+        <v>675</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="O161" t="s" s="2">
+        <v>677</v>
+      </c>
       <c r="P161" t="s" s="2">
         <v>79</v>
       </c>
@@ -21724,13 +21691,13 @@
         <v>79</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>79</v>
+        <v>678</v>
       </c>
       <c r="Z161" t="s" s="2">
-        <v>79</v>
+        <v>679</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>79</v>
@@ -21748,7 +21715,7 @@
         <v>79</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>109</v>
+        <v>673</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -21757,19 +21724,19 @@
         <v>92</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>79</v>
+        <v>664</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL161" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AM161" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>79</v>
@@ -21783,18 +21750,18 @@
         <v>710</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G162" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H162" t="s" s="2">
         <v>79</v>
@@ -21806,16 +21773,16 @@
         <v>79</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>346</v>
+        <v>682</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>347</v>
+        <v>683</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>348</v>
+        <v>684</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" t="s" s="2">
@@ -21853,19 +21820,19 @@
         <v>79</v>
       </c>
       <c r="AB162" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AC162" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AD162" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>118</v>
+        <v>681</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -21874,19 +21841,19 @@
         <v>81</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>79</v>
+        <v>643</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>110</v>
+        <v>614</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>79</v>
+        <v>685</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>79</v>
@@ -21900,7 +21867,7 @@
         <v>711</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>668</v>
+        <v>609</v>
       </c>
       <c r="C163" t="s" s="2">
         <v>712</v>
@@ -21910,7 +21877,7 @@
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>92</v>
@@ -21925,17 +21892,15 @@
         <v>79</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L163" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="L163" t="s" s="2">
-        <v>714</v>
-      </c>
       <c r="M163" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>716</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="N163" s="2"/>
       <c r="O163" s="2"/>
       <c r="P163" t="s" s="2">
         <v>79</v>
@@ -21984,7 +21949,7 @@
         <v>79</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>118</v>
+        <v>609</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -21996,16 +21961,16 @@
         <v>79</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>119</v>
+        <v>613</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>79</v>
+        <v>614</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>79</v>
+        <v>615</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>79</v>
@@ -22016,10 +21981,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>669</v>
+        <v>616</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22039,20 +22004,18 @@
         <v>79</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K164" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>350</v>
+        <v>107</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N164" s="2"/>
       <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
         <v>79</v>
@@ -22101,7 +22064,7 @@
         <v>79</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>353</v>
+        <v>109</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22110,16 +22073,16 @@
         <v>92</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>79</v>
@@ -22133,21 +22096,21 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>670</v>
+        <v>617</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G165" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H165" t="s" s="2">
         <v>79</v>
@@ -22156,19 +22119,19 @@
         <v>79</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" t="s" s="2">
@@ -22194,13 +22157,13 @@
         <v>79</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="Z165" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>79</v>
@@ -22218,25 +22181,25 @@
         <v>79</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>361</v>
+        <v>118</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>79</v>
@@ -22250,10 +22213,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>671</v>
+        <v>618</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22264,29 +22227,27 @@
         <v>80</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H166" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I166" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J166" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>363</v>
+        <v>181</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N166" s="2"/>
       <c r="O166" s="2"/>
       <c r="P166" t="s" s="2">
         <v>79</v>
@@ -22335,25 +22296,25 @@
         <v>79</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>366</v>
+        <v>498</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>79</v>
@@ -22367,18 +22328,18 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
-        <v>79</v>
+        <v>620</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>92</v>
@@ -22390,21 +22351,23 @@
         <v>79</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>369</v>
+        <v>718</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>370</v>
+        <v>622</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O167" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="O167" t="s" s="2">
+        <v>624</v>
+      </c>
       <c r="P167" t="s" s="2">
         <v>79</v>
       </c>
@@ -22452,7 +22415,7 @@
         <v>79</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>372</v>
+        <v>619</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -22470,10 +22433,10 @@
         <v>79</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>179</v>
+        <v>418</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>79</v>
@@ -22484,10 +22447,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>673</v>
+        <v>625</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22495,7 +22458,7 @@
       </c>
       <c r="E168" s="2"/>
       <c r="F168" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>92</v>
@@ -22513,16 +22476,16 @@
         <v>220</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>675</v>
+        <v>627</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>676</v>
+        <v>628</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>677</v>
+        <v>629</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>79</v>
@@ -22532,7 +22495,7 @@
         <v>79</v>
       </c>
       <c r="S168" t="s" s="2">
-        <v>79</v>
+        <v>720</v>
       </c>
       <c r="T168" t="s" s="2">
         <v>79</v>
@@ -22547,13 +22510,13 @@
         <v>79</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>678</v>
+        <v>630</v>
       </c>
       <c r="Z168" t="s" s="2">
-        <v>679</v>
+        <v>631</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>79</v>
@@ -22571,7 +22534,7 @@
         <v>79</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>673</v>
+        <v>625</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -22580,7 +22543,7 @@
         <v>92</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>664</v>
+        <v>79</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>104</v>
@@ -22589,10 +22552,10 @@
         <v>79</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>680</v>
+        <v>273</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>79</v>
@@ -22603,10 +22566,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>681</v>
+        <v>632</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22629,18 +22592,18 @@
         <v>79</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>79</v>
+        <v>633</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>682</v>
+        <v>634</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="O169" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="N169" s="2"/>
+      <c r="O169" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P169" t="s" s="2">
         <v>79</v>
       </c>
@@ -22688,7 +22651,7 @@
         <v>79</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>681</v>
+        <v>632</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -22697,7 +22660,7 @@
         <v>81</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>643</v>
+        <v>79</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>104</v>
@@ -22706,34 +22669,32 @@
         <v>79</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>614</v>
+        <v>399</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>685</v>
+        <v>400</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO169" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="C170" t="s" s="2">
-        <v>724</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>92</v>
@@ -22748,15 +22709,17 @@
         <v>79</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>484</v>
+        <v>605</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>725</v>
+        <v>698</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N170" s="2"/>
+        <v>699</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="O170" s="2"/>
       <c r="P170" t="s" s="2">
         <v>79</v>
@@ -22805,28 +22768,28 @@
         <v>79</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH170" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI170" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>613</v>
+        <v>104</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>614</v>
+        <v>79</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>615</v>
+        <v>638</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>79</v>
@@ -22837,10 +22800,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22848,7 +22811,7 @@
       </c>
       <c r="E171" s="2"/>
       <c r="F171" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>92</v>
@@ -22863,15 +22826,17 @@
         <v>79</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>107</v>
+        <v>724</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N171" s="2"/>
+        <v>641</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>642</v>
+      </c>
       <c r="O171" s="2"/>
       <c r="P171" t="s" s="2">
         <v>79</v>
@@ -22920,7 +22885,7 @@
         <v>79</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>109</v>
+        <v>639</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -22929,19 +22894,19 @@
         <v>92</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>79</v>
+        <v>643</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>110</v>
+        <v>644</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>79</v>
+        <v>644</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>79</v>
@@ -22952,21 +22917,21 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>617</v>
+        <v>645</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G172" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H172" t="s" s="2">
         <v>79</v>
@@ -22978,18 +22943,20 @@
         <v>79</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>346</v>
+        <v>646</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>347</v>
+        <v>647</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O172" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="O172" t="s" s="2">
+        <v>649</v>
+      </c>
       <c r="P172" t="s" s="2">
         <v>79</v>
       </c>
@@ -23013,13 +22980,13 @@
         <v>79</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>79</v>
+        <v>651</v>
       </c>
       <c r="Z172" t="s" s="2">
-        <v>79</v>
+        <v>652</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>79</v>
@@ -23037,42 +23004,42 @@
         <v>79</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>118</v>
+        <v>645</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH172" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI172" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL172" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AM172" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AM172" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AN172" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO172" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>618</v>
+        <v>654</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23083,28 +23050,32 @@
         <v>80</v>
       </c>
       <c r="G173" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H173" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I173" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>181</v>
+        <v>704</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N173" s="2"/>
-      <c r="O173" s="2"/>
+        <v>705</v>
+      </c>
+      <c r="N173" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="O173" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="P173" t="s" s="2">
         <v>79</v>
       </c>
@@ -23128,13 +23099,13 @@
         <v>79</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>79</v>
+        <v>657</v>
       </c>
       <c r="Z173" t="s" s="2">
-        <v>79</v>
+        <v>658</v>
       </c>
       <c r="AA173" t="s" s="2">
         <v>79</v>
@@ -23152,28 +23123,28 @@
         <v>79</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>498</v>
+        <v>654</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH173" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI173" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>79</v>
+        <v>659</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>79</v>
@@ -23184,21 +23155,21 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>619</v>
+        <v>660</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
-        <v>620</v>
+        <v>79</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G174" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H174" t="s" s="2">
         <v>79</v>
@@ -23210,20 +23181,18 @@
         <v>79</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>106</v>
+        <v>605</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>730</v>
+        <v>661</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>622</v>
+        <v>662</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="O174" t="s" s="2">
-        <v>624</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
         <v>79</v>
       </c>
@@ -23259,28 +23228,26 @@
         <v>79</v>
       </c>
       <c r="AB174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC174" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="AC174" s="2"/>
       <c r="AD174" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>619</v>
+        <v>660</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH174" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>79</v>
+        <v>664</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>104</v>
@@ -23289,10 +23256,10 @@
         <v>79</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>418</v>
+        <v>665</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>419</v>
+        <v>666</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>79</v>
@@ -23303,21 +23270,23 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="C175" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="C175" t="s" s="2">
+        <v>730</v>
+      </c>
       <c r="D175" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G175" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H175" t="s" s="2">
         <v>79</v>
@@ -23329,20 +23298,18 @@
         <v>79</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>220</v>
+        <v>731</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>626</v>
+        <v>732</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>627</v>
+        <v>662</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="O175" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
         <v>79</v>
       </c>
@@ -23351,7 +23318,7 @@
         <v>79</v>
       </c>
       <c r="S175" t="s" s="2">
-        <v>732</v>
+        <v>79</v>
       </c>
       <c r="T175" t="s" s="2">
         <v>79</v>
@@ -23366,13 +23333,13 @@
         <v>79</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>630</v>
+        <v>79</v>
       </c>
       <c r="Z175" t="s" s="2">
-        <v>631</v>
+        <v>79</v>
       </c>
       <c r="AA175" t="s" s="2">
         <v>79</v>
@@ -23390,16 +23357,16 @@
         <v>79</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>625</v>
+        <v>660</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH175" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>79</v>
+        <v>664</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>104</v>
@@ -23408,10 +23375,10 @@
         <v>79</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>273</v>
+        <v>665</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>274</v>
+        <v>666</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>79</v>
@@ -23425,7 +23392,7 @@
         <v>733</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>632</v>
+        <v>667</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23436,7 +23403,7 @@
         <v>80</v>
       </c>
       <c r="G176" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H176" t="s" s="2">
         <v>79</v>
@@ -23448,18 +23415,16 @@
         <v>79</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>633</v>
+        <v>106</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>634</v>
+        <v>107</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>635</v>
+        <v>108</v>
       </c>
       <c r="N176" s="2"/>
-      <c r="O176" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="O176" s="2"/>
       <c r="P176" t="s" s="2">
         <v>79</v>
       </c>
@@ -23507,34 +23472,34 @@
         <v>79</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>632</v>
+        <v>109</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH176" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI176" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK176" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>399</v>
+        <v>110</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
     </row>
     <row r="177">
@@ -23542,18 +23507,18 @@
         <v>734</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>636</v>
+        <v>668</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H177" t="s" s="2">
         <v>79</v>
@@ -23565,16 +23530,16 @@
         <v>79</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>605</v>
+        <v>112</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>698</v>
+        <v>346</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>699</v>
+        <v>347</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>637</v>
+        <v>348</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" t="s" s="2">
@@ -23612,40 +23577,40 @@
         <v>79</v>
       </c>
       <c r="AB177" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC177" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD177" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>636</v>
+        <v>118</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH177" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI177" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>638</v>
+        <v>79</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>79</v>
@@ -23659,7 +23624,7 @@
         <v>735</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>639</v>
+        <v>669</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23679,19 +23644,19 @@
         <v>79</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>736</v>
+        <v>350</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>641</v>
+        <v>351</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>642</v>
+        <v>352</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" t="s" s="2">
@@ -23741,7 +23706,7 @@
         <v>79</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>639</v>
+        <v>353</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -23750,7 +23715,7 @@
         <v>92</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>643</v>
+        <v>354</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>104</v>
@@ -23759,10 +23724,10 @@
         <v>79</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>644</v>
+        <v>179</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>644</v>
+        <v>79</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>79</v>
@@ -23773,10 +23738,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>645</v>
+        <v>670</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23796,23 +23761,21 @@
         <v>79</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>646</v>
+        <v>356</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>647</v>
+        <v>357</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>649</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="O179" s="2"/>
       <c r="P179" t="s" s="2">
         <v>79</v>
       </c>
@@ -23836,13 +23799,13 @@
         <v>79</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>651</v>
+        <v>359</v>
       </c>
       <c r="Z179" t="s" s="2">
-        <v>652</v>
+        <v>360</v>
       </c>
       <c r="AA179" t="s" s="2">
         <v>79</v>
@@ -23860,7 +23823,7 @@
         <v>79</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>645</v>
+        <v>361</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -23878,24 +23841,24 @@
         <v>79</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>653</v>
+        <v>179</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO179" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -23915,23 +23878,21 @@
         <v>79</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>704</v>
+        <v>363</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>705</v>
+        <v>364</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="O180" t="s" s="2">
-        <v>656</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="O180" s="2"/>
       <c r="P180" t="s" s="2">
         <v>79</v>
       </c>
@@ -23955,13 +23916,13 @@
         <v>79</v>
       </c>
       <c r="X180" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>657</v>
+        <v>79</v>
       </c>
       <c r="Z180" t="s" s="2">
-        <v>658</v>
+        <v>79</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>79</v>
@@ -23979,7 +23940,7 @@
         <v>79</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>654</v>
+        <v>366</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -23997,10 +23958,10 @@
         <v>79</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>659</v>
+        <v>367</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>79</v>
@@ -24011,10 +23972,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24025,7 +23986,7 @@
         <v>80</v>
       </c>
       <c r="G181" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H181" t="s" s="2">
         <v>79</v>
@@ -24034,19 +23995,19 @@
         <v>79</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>605</v>
+        <v>106</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>661</v>
+        <v>369</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>662</v>
+        <v>370</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>663</v>
+        <v>371</v>
       </c>
       <c r="O181" s="2"/>
       <c r="P181" t="s" s="2">
@@ -24084,26 +24045,28 @@
         <v>79</v>
       </c>
       <c r="AB181" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="AC181" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC181" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD181" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>660</v>
+        <v>372</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH181" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>664</v>
+        <v>79</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>104</v>
@@ -24112,10 +24075,10 @@
         <v>79</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>665</v>
+        <v>179</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>666</v>
+        <v>79</v>
       </c>
       <c r="AN181" t="s" s="2">
         <v>79</v>
@@ -24126,13 +24089,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>660</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D182" t="s" s="2">
         <v>79</v>
@@ -24154,10 +24117,10 @@
         <v>79</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="M182" t="s" s="2">
         <v>662</v>
@@ -24245,7 +24208,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>667</v>
@@ -24360,7 +24323,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>668</v>
@@ -24477,7 +24440,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>669</v>
@@ -24594,7 +24557,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>670</v>
@@ -24711,7 +24674,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>671</v>
@@ -24828,7 +24791,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>672</v>
@@ -24945,13 +24908,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>660</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D189" t="s" s="2">
         <v>79</v>
@@ -24973,10 +24936,10 @@
         <v>79</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="M189" t="s" s="2">
         <v>662</v>
@@ -25064,7 +25027,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>667</v>
@@ -25179,7 +25142,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>668</v>
@@ -25296,7 +25259,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>669</v>
@@ -25413,7 +25376,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>670</v>
@@ -25530,7 +25493,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>671</v>
@@ -25647,7 +25610,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>672</v>
@@ -25764,13 +25727,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>660</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D196" t="s" s="2">
         <v>79</v>
@@ -25792,10 +25755,10 @@
         <v>79</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="M196" t="s" s="2">
         <v>662</v>
@@ -25883,7 +25846,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>667</v>
@@ -25998,7 +25961,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>668</v>
@@ -26115,7 +26078,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>669</v>
@@ -26232,7 +26195,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>670</v>
@@ -26349,7 +26312,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>671</v>
@@ -26466,7 +26429,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>672</v>
@@ -26583,14 +26546,12 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="C203" t="s" s="2">
-        <v>772</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
         <v>79</v>
       </c>
@@ -26599,7 +26560,7 @@
         <v>80</v>
       </c>
       <c r="G203" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H203" t="s" s="2">
         <v>79</v>
@@ -26611,18 +26572,20 @@
         <v>79</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>773</v>
+        <v>220</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>774</v>
+        <v>674</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="O203" s="2"/>
+        <v>676</v>
+      </c>
+      <c r="O203" t="s" s="2">
+        <v>677</v>
+      </c>
       <c r="P203" t="s" s="2">
         <v>79</v>
       </c>
@@ -26646,13 +26609,13 @@
         <v>79</v>
       </c>
       <c r="X203" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>79</v>
+        <v>678</v>
       </c>
       <c r="Z203" t="s" s="2">
-        <v>79</v>
+        <v>679</v>
       </c>
       <c r="AA203" t="s" s="2">
         <v>79</v>
@@ -26670,13 +26633,13 @@
         <v>79</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH203" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI203" t="s" s="2">
         <v>664</v>
@@ -26688,10 +26651,10 @@
         <v>79</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>666</v>
+        <v>110</v>
       </c>
       <c r="AN203" t="s" s="2">
         <v>79</v>
@@ -26702,10 +26665,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -26716,7 +26679,7 @@
         <v>80</v>
       </c>
       <c r="G204" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H204" t="s" s="2">
         <v>79</v>
@@ -26728,15 +26691,17 @@
         <v>79</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>107</v>
+        <v>682</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N204" s="2"/>
+        <v>683</v>
+      </c>
+      <c r="N204" t="s" s="2">
+        <v>684</v>
+      </c>
       <c r="O204" s="2"/>
       <c r="P204" t="s" s="2">
         <v>79</v>
@@ -26785,28 +26750,28 @@
         <v>79</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>109</v>
+        <v>681</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI204" t="s" s="2">
-        <v>79</v>
+        <v>643</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AK204" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>110</v>
+        <v>614</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>79</v>
+        <v>685</v>
       </c>
       <c r="AN204" t="s" s="2">
         <v>79</v>
@@ -26817,21 +26782,23 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="C205" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="C205" t="s" s="2">
+        <v>772</v>
+      </c>
       <c r="D205" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G205" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H205" t="s" s="2">
         <v>79</v>
@@ -26843,17 +26810,15 @@
         <v>79</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>112</v>
+        <v>484</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>346</v>
+        <v>773</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="N205" s="2"/>
       <c r="O205" s="2"/>
       <c r="P205" t="s" s="2">
         <v>79</v>
@@ -26890,19 +26855,19 @@
         <v>79</v>
       </c>
       <c r="AB205" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AC205" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AD205" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>118</v>
+        <v>609</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
@@ -26914,16 +26879,16 @@
         <v>79</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>119</v>
+        <v>613</v>
       </c>
       <c r="AK205" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>110</v>
+        <v>614</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>79</v>
+        <v>615</v>
       </c>
       <c r="AN205" t="s" s="2">
         <v>79</v>
@@ -26934,10 +26899,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>669</v>
+        <v>616</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -26945,7 +26910,7 @@
       </c>
       <c r="E206" s="2"/>
       <c r="F206" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G206" t="s" s="2">
         <v>92</v>
@@ -26957,20 +26922,18 @@
         <v>79</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K206" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>350</v>
+        <v>107</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N206" s="2"/>
       <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
         <v>79</v>
@@ -27019,7 +26982,7 @@
         <v>79</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>353</v>
+        <v>109</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>80</v>
@@ -27028,16 +26991,16 @@
         <v>92</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK206" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="AM206" t="s" s="2">
         <v>79</v>
@@ -27051,21 +27014,21 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>670</v>
+        <v>617</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G207" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H207" t="s" s="2">
         <v>79</v>
@@ -27074,19 +27037,19 @@
         <v>79</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
@@ -27112,13 +27075,13 @@
         <v>79</v>
       </c>
       <c r="X207" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="Z207" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AA207" t="s" s="2">
         <v>79</v>
@@ -27136,25 +27099,25 @@
         <v>79</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>361</v>
+        <v>118</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH207" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI207" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="AK207" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="AM207" t="s" s="2">
         <v>79</v>
@@ -27168,10 +27131,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>671</v>
+        <v>618</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27182,29 +27145,27 @@
         <v>80</v>
       </c>
       <c r="G208" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H208" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I208" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J208" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>363</v>
+        <v>181</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N208" s="2"/>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
         <v>79</v>
@@ -27253,25 +27214,25 @@
         <v>79</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>366</v>
+        <v>498</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH208" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI208" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AM208" t="s" s="2">
         <v>79</v>
@@ -27285,18 +27246,18 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
-        <v>79</v>
+        <v>620</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>92</v>
@@ -27308,21 +27269,23 @@
         <v>79</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K209" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>369</v>
+        <v>778</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>370</v>
+        <v>622</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O209" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="O209" t="s" s="2">
+        <v>624</v>
+      </c>
       <c r="P209" t="s" s="2">
         <v>79</v>
       </c>
@@ -27370,7 +27333,7 @@
         <v>79</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>372</v>
+        <v>619</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
@@ -27388,10 +27351,10 @@
         <v>79</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>179</v>
+        <v>418</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AN209" t="s" s="2">
         <v>79</v>
@@ -27402,10 +27365,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>673</v>
+        <v>625</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -27413,7 +27376,7 @@
       </c>
       <c r="E210" s="2"/>
       <c r="F210" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G210" t="s" s="2">
         <v>92</v>
@@ -27431,16 +27394,16 @@
         <v>220</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>675</v>
+        <v>627</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>676</v>
+        <v>628</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>677</v>
+        <v>629</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>79</v>
@@ -27450,7 +27413,7 @@
         <v>79</v>
       </c>
       <c r="S210" t="s" s="2">
-        <v>79</v>
+        <v>780</v>
       </c>
       <c r="T210" t="s" s="2">
         <v>79</v>
@@ -27465,13 +27428,13 @@
         <v>79</v>
       </c>
       <c r="X210" t="s" s="2">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>678</v>
+        <v>630</v>
       </c>
       <c r="Z210" t="s" s="2">
-        <v>679</v>
+        <v>631</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>79</v>
@@ -27489,7 +27452,7 @@
         <v>79</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>673</v>
+        <v>625</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
@@ -27498,7 +27461,7 @@
         <v>92</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>664</v>
+        <v>79</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>104</v>
@@ -27507,10 +27470,10 @@
         <v>79</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>680</v>
+        <v>273</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="AN210" t="s" s="2">
         <v>79</v>
@@ -27521,10 +27484,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>681</v>
+        <v>632</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -27535,7 +27498,7 @@
         <v>80</v>
       </c>
       <c r="G211" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H211" t="s" s="2">
         <v>79</v>
@@ -27547,18 +27510,18 @@
         <v>79</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>79</v>
+        <v>633</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>682</v>
+        <v>634</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="O211" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="N211" s="2"/>
+      <c r="O211" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P211" t="s" s="2">
         <v>79</v>
       </c>
@@ -27606,7 +27569,7 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>681</v>
+        <v>632</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
@@ -27615,7 +27578,7 @@
         <v>81</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>643</v>
+        <v>79</v>
       </c>
       <c r="AJ211" t="s" s="2">
         <v>104</v>
@@ -27624,28 +27587,26 @@
         <v>79</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>614</v>
+        <v>399</v>
       </c>
       <c r="AM211" t="s" s="2">
-        <v>685</v>
+        <v>400</v>
       </c>
       <c r="AN211" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO211" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="C212" t="s" s="2">
-        <v>784</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
         <v>79</v>
       </c>
@@ -27666,15 +27627,17 @@
         <v>79</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>484</v>
+        <v>605</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>785</v>
+        <v>698</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N212" s="2"/>
+        <v>699</v>
+      </c>
+      <c r="N212" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
         <v>79</v>
@@ -27723,28 +27686,28 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH212" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI212" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>613</v>
+        <v>104</v>
       </c>
       <c r="AK212" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL212" t="s" s="2">
-        <v>614</v>
+        <v>79</v>
       </c>
       <c r="AM212" t="s" s="2">
-        <v>615</v>
+        <v>638</v>
       </c>
       <c r="AN212" t="s" s="2">
         <v>79</v>
@@ -27755,10 +27718,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -27766,7 +27729,7 @@
       </c>
       <c r="E213" s="2"/>
       <c r="F213" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G213" t="s" s="2">
         <v>92</v>
@@ -27781,15 +27744,17 @@
         <v>79</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>107</v>
+        <v>784</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N213" s="2"/>
+        <v>641</v>
+      </c>
+      <c r="N213" t="s" s="2">
+        <v>642</v>
+      </c>
       <c r="O213" s="2"/>
       <c r="P213" t="s" s="2">
         <v>79</v>
@@ -27838,7 +27803,7 @@
         <v>79</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>109</v>
+        <v>639</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>80</v>
@@ -27847,19 +27812,19 @@
         <v>92</v>
       </c>
       <c r="AI213" t="s" s="2">
-        <v>79</v>
+        <v>643</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AK213" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL213" t="s" s="2">
-        <v>110</v>
+        <v>644</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>79</v>
+        <v>644</v>
       </c>
       <c r="AN213" t="s" s="2">
         <v>79</v>
@@ -27870,21 +27835,21 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>617</v>
+        <v>645</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H214" t="s" s="2">
         <v>79</v>
@@ -27896,18 +27861,20 @@
         <v>79</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>346</v>
+        <v>646</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>347</v>
+        <v>647</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O214" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="O214" t="s" s="2">
+        <v>649</v>
+      </c>
       <c r="P214" t="s" s="2">
         <v>79</v>
       </c>
@@ -27931,13 +27898,13 @@
         <v>79</v>
       </c>
       <c r="X214" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>79</v>
+        <v>651</v>
       </c>
       <c r="Z214" t="s" s="2">
-        <v>79</v>
+        <v>652</v>
       </c>
       <c r="AA214" t="s" s="2">
         <v>79</v>
@@ -27955,42 +27922,42 @@
         <v>79</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>118</v>
+        <v>645</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI214" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK214" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL214" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AM214" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AM214" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AN214" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO214" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>618</v>
+        <v>654</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28001,28 +27968,32 @@
         <v>80</v>
       </c>
       <c r="G215" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H215" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I215" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>181</v>
+        <v>704</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N215" s="2"/>
-      <c r="O215" s="2"/>
+        <v>705</v>
+      </c>
+      <c r="N215" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="O215" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="P215" t="s" s="2">
         <v>79</v>
       </c>
@@ -28046,13 +28017,13 @@
         <v>79</v>
       </c>
       <c r="X215" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Y215" t="s" s="2">
-        <v>79</v>
+        <v>657</v>
       </c>
       <c r="Z215" t="s" s="2">
-        <v>79</v>
+        <v>658</v>
       </c>
       <c r="AA215" t="s" s="2">
         <v>79</v>
@@ -28070,28 +28041,28 @@
         <v>79</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>498</v>
+        <v>654</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH215" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI215" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK215" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>79</v>
+        <v>659</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AN215" t="s" s="2">
         <v>79</v>
@@ -28102,21 +28073,21 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>619</v>
+        <v>660</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
-        <v>620</v>
+        <v>79</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G216" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H216" t="s" s="2">
         <v>79</v>
@@ -28128,20 +28099,18 @@
         <v>79</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>106</v>
+        <v>605</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>790</v>
+        <v>661</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>622</v>
+        <v>662</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="O216" t="s" s="2">
-        <v>624</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="O216" s="2"/>
       <c r="P216" t="s" s="2">
         <v>79</v>
       </c>
@@ -28189,16 +28158,16 @@
         <v>79</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>619</v>
+        <v>660</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH216" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>79</v>
+        <v>664</v>
       </c>
       <c r="AJ216" t="s" s="2">
         <v>104</v>
@@ -28207,10 +28176,10 @@
         <v>79</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>418</v>
+        <v>665</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>419</v>
+        <v>666</v>
       </c>
       <c r="AN216" t="s" s="2">
         <v>79</v>
@@ -28221,10 +28190,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>625</v>
+        <v>673</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28232,7 +28201,7 @@
       </c>
       <c r="E217" s="2"/>
       <c r="F217" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G217" t="s" s="2">
         <v>92</v>
@@ -28250,16 +28219,16 @@
         <v>220</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>626</v>
+        <v>674</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>627</v>
+        <v>675</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>628</v>
+        <v>676</v>
       </c>
       <c r="O217" t="s" s="2">
-        <v>629</v>
+        <v>677</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>79</v>
@@ -28269,7 +28238,7 @@
         <v>79</v>
       </c>
       <c r="S217" t="s" s="2">
-        <v>792</v>
+        <v>79</v>
       </c>
       <c r="T217" t="s" s="2">
         <v>79</v>
@@ -28284,13 +28253,13 @@
         <v>79</v>
       </c>
       <c r="X217" t="s" s="2">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>630</v>
+        <v>678</v>
       </c>
       <c r="Z217" t="s" s="2">
-        <v>631</v>
+        <v>679</v>
       </c>
       <c r="AA217" t="s" s="2">
         <v>79</v>
@@ -28308,7 +28277,7 @@
         <v>79</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>625</v>
+        <v>673</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
@@ -28317,7 +28286,7 @@
         <v>92</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>79</v>
+        <v>664</v>
       </c>
       <c r="AJ217" t="s" s="2">
         <v>104</v>
@@ -28326,10 +28295,10 @@
         <v>79</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>273</v>
+        <v>680</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>274</v>
+        <v>110</v>
       </c>
       <c r="AN217" t="s" s="2">
         <v>79</v>
@@ -28340,10 +28309,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>632</v>
+        <v>681</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -28354,7 +28323,7 @@
         <v>80</v>
       </c>
       <c r="G218" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H218" t="s" s="2">
         <v>79</v>
@@ -28366,18 +28335,18 @@
         <v>79</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>633</v>
+        <v>79</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>634</v>
+        <v>682</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="N218" s="2"/>
-      <c r="O218" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="N218" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="O218" s="2"/>
       <c r="P218" t="s" s="2">
         <v>79</v>
       </c>
@@ -28425,7 +28394,7 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>632</v>
+        <v>681</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
@@ -28434,7 +28403,7 @@
         <v>81</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>79</v>
+        <v>643</v>
       </c>
       <c r="AJ218" t="s" s="2">
         <v>104</v>
@@ -28443,26 +28412,28 @@
         <v>79</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>399</v>
+        <v>614</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>400</v>
+        <v>685</v>
       </c>
       <c r="AN218" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO218" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="C219" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="C219" t="s" s="2">
+        <v>791</v>
+      </c>
       <c r="D219" t="s" s="2">
         <v>79</v>
       </c>
@@ -28483,17 +28454,15 @@
         <v>79</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>605</v>
+        <v>484</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>698</v>
+        <v>792</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>637</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="N219" s="2"/>
       <c r="O219" s="2"/>
       <c r="P219" t="s" s="2">
         <v>79</v>
@@ -28542,28 +28511,28 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH219" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI219" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>104</v>
+        <v>613</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>79</v>
+        <v>614</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="AN219" t="s" s="2">
         <v>79</v>
@@ -28574,10 +28543,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -28585,7 +28554,7 @@
       </c>
       <c r="E220" s="2"/>
       <c r="F220" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G220" t="s" s="2">
         <v>92</v>
@@ -28600,17 +28569,15 @@
         <v>79</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>796</v>
+        <v>107</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>642</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N220" s="2"/>
       <c r="O220" s="2"/>
       <c r="P220" t="s" s="2">
         <v>79</v>
@@ -28659,7 +28626,7 @@
         <v>79</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>639</v>
+        <v>109</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
@@ -28668,19 +28635,19 @@
         <v>92</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>643</v>
+        <v>79</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK220" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL220" t="s" s="2">
-        <v>644</v>
+        <v>110</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>644</v>
+        <v>79</v>
       </c>
       <c r="AN220" t="s" s="2">
         <v>79</v>
@@ -28691,21 +28658,21 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>645</v>
+        <v>617</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G221" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H221" t="s" s="2">
         <v>79</v>
@@ -28717,20 +28684,18 @@
         <v>79</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>646</v>
+        <v>346</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>647</v>
+        <v>347</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="O221" t="s" s="2">
-        <v>649</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="O221" s="2"/>
       <c r="P221" t="s" s="2">
         <v>79</v>
       </c>
@@ -28754,13 +28719,13 @@
         <v>79</v>
       </c>
       <c r="X221" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="Y221" t="s" s="2">
-        <v>651</v>
+        <v>79</v>
       </c>
       <c r="Z221" t="s" s="2">
-        <v>652</v>
+        <v>79</v>
       </c>
       <c r="AA221" t="s" s="2">
         <v>79</v>
@@ -28778,42 +28743,42 @@
         <v>79</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>645</v>
+        <v>118</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH221" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI221" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="AK221" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL221" t="s" s="2">
-        <v>653</v>
+        <v>110</v>
       </c>
       <c r="AM221" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AN221" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO221" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -28824,32 +28789,28 @@
         <v>80</v>
       </c>
       <c r="G222" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H222" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I222" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>704</v>
+        <v>181</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="O222" t="s" s="2">
-        <v>656</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N222" s="2"/>
+      <c r="O222" s="2"/>
       <c r="P222" t="s" s="2">
         <v>79</v>
       </c>
@@ -28873,13 +28834,13 @@
         <v>79</v>
       </c>
       <c r="X222" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>657</v>
+        <v>79</v>
       </c>
       <c r="Z222" t="s" s="2">
-        <v>658</v>
+        <v>79</v>
       </c>
       <c r="AA222" t="s" s="2">
         <v>79</v>
@@ -28897,28 +28858,28 @@
         <v>79</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>654</v>
+        <v>498</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH222" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI222" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="AK222" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL222" t="s" s="2">
-        <v>659</v>
+        <v>79</v>
       </c>
       <c r="AM222" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AN222" t="s" s="2">
         <v>79</v>
@@ -28929,21 +28890,21 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>660</v>
+        <v>619</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
-        <v>79</v>
+        <v>620</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G223" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>79</v>
@@ -28955,18 +28916,20 @@
         <v>79</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>605</v>
+        <v>106</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>661</v>
+        <v>621</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>662</v>
+        <v>622</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="O223" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="O223" t="s" s="2">
+        <v>624</v>
+      </c>
       <c r="P223" t="s" s="2">
         <v>79</v>
       </c>
@@ -29014,16 +28977,16 @@
         <v>79</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>660</v>
+        <v>619</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH223" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI223" t="s" s="2">
-        <v>664</v>
+        <v>79</v>
       </c>
       <c r="AJ223" t="s" s="2">
         <v>104</v>
@@ -29032,10 +28995,10 @@
         <v>79</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>665</v>
+        <v>418</v>
       </c>
       <c r="AM223" t="s" s="2">
-        <v>666</v>
+        <v>419</v>
       </c>
       <c r="AN223" t="s" s="2">
         <v>79</v>
@@ -29046,10 +29009,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>673</v>
+        <v>625</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29057,7 +29020,7 @@
       </c>
       <c r="E224" s="2"/>
       <c r="F224" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G224" t="s" s="2">
         <v>92</v>
@@ -29075,16 +29038,16 @@
         <v>220</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>675</v>
+        <v>627</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>676</v>
+        <v>628</v>
       </c>
       <c r="O224" t="s" s="2">
-        <v>677</v>
+        <v>629</v>
       </c>
       <c r="P224" t="s" s="2">
         <v>79</v>
@@ -29094,7 +29057,7 @@
         <v>79</v>
       </c>
       <c r="S224" t="s" s="2">
-        <v>79</v>
+        <v>798</v>
       </c>
       <c r="T224" t="s" s="2">
         <v>79</v>
@@ -29109,13 +29072,13 @@
         <v>79</v>
       </c>
       <c r="X224" t="s" s="2">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="Y224" t="s" s="2">
-        <v>678</v>
+        <v>630</v>
       </c>
       <c r="Z224" t="s" s="2">
-        <v>679</v>
+        <v>631</v>
       </c>
       <c r="AA224" t="s" s="2">
         <v>79</v>
@@ -29133,7 +29096,7 @@
         <v>79</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>673</v>
+        <v>625</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>80</v>
@@ -29142,7 +29105,7 @@
         <v>92</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>664</v>
+        <v>79</v>
       </c>
       <c r="AJ224" t="s" s="2">
         <v>104</v>
@@ -29151,10 +29114,10 @@
         <v>79</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>680</v>
+        <v>273</v>
       </c>
       <c r="AM224" t="s" s="2">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="AN224" t="s" s="2">
         <v>79</v>
@@ -29165,10 +29128,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>681</v>
+        <v>800</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -29179,7 +29142,7 @@
         <v>80</v>
       </c>
       <c r="G225" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H225" t="s" s="2">
         <v>79</v>
@@ -29191,17 +29154,15 @@
         <v>79</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>682</v>
+        <v>107</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>684</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N225" s="2"/>
       <c r="O225" s="2"/>
       <c r="P225" t="s" s="2">
         <v>79</v>
@@ -29250,28 +29211,28 @@
         <v>79</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>681</v>
+        <v>109</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH225" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>643</v>
+        <v>79</v>
       </c>
       <c r="AJ225" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK225" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL225" t="s" s="2">
-        <v>614</v>
+        <v>110</v>
       </c>
       <c r="AM225" t="s" s="2">
-        <v>685</v>
+        <v>79</v>
       </c>
       <c r="AN225" t="s" s="2">
         <v>79</v>
@@ -29282,23 +29243,21 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="B226" t="s" s="2">
         <v>802</v>
       </c>
-      <c r="B226" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="C226" t="s" s="2">
-        <v>803</v>
-      </c>
+      <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G226" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H226" t="s" s="2">
         <v>79</v>
@@ -29310,15 +29269,17 @@
         <v>79</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>484</v>
+        <v>112</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>804</v>
+        <v>346</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N226" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N226" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O226" s="2"/>
       <c r="P226" t="s" s="2">
         <v>79</v>
@@ -29355,19 +29316,19 @@
         <v>79</v>
       </c>
       <c r="AB226" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC226" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD226" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>609</v>
+        <v>118</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>80</v>
@@ -29379,16 +29340,16 @@
         <v>79</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>613</v>
+        <v>119</v>
       </c>
       <c r="AK226" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL226" t="s" s="2">
-        <v>614</v>
+        <v>110</v>
       </c>
       <c r="AM226" t="s" s="2">
-        <v>615</v>
+        <v>79</v>
       </c>
       <c r="AN226" t="s" s="2">
         <v>79</v>
@@ -29399,10 +29360,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>616</v>
+        <v>804</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -29410,10 +29371,10 @@
       </c>
       <c r="E227" s="2"/>
       <c r="F227" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G227" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H227" t="s" s="2">
         <v>79</v>
@@ -29422,19 +29383,23 @@
         <v>79</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N227" s="2"/>
-      <c r="O227" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N227" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O227" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P227" t="s" s="2">
         <v>79</v>
       </c>
@@ -29482,25 +29447,25 @@
         <v>79</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH227" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI227" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AK227" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>79</v>
@@ -29514,21 +29479,21 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="B228" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="B228" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G228" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H228" t="s" s="2">
         <v>79</v>
@@ -29537,21 +29502,23 @@
         <v>79</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O228" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="O228" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P228" t="s" s="2">
         <v>79</v>
       </c>
@@ -29599,25 +29566,25 @@
         <v>79</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH228" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI228" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ228" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK228" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL228" t="s" s="2">
-        <v>110</v>
+        <v>322</v>
       </c>
       <c r="AM228" t="s" s="2">
         <v>79</v>
@@ -29634,7 +29601,7 @@
         <v>807</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -29645,28 +29612,30 @@
         <v>80</v>
       </c>
       <c r="G229" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H229" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I229" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>112</v>
+        <v>633</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>181</v>
+        <v>634</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>182</v>
+        <v>635</v>
       </c>
       <c r="N229" s="2"/>
-      <c r="O229" s="2"/>
+      <c r="O229" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P229" t="s" s="2">
         <v>79</v>
       </c>
@@ -29714,7 +29683,7 @@
         <v>79</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>498</v>
+        <v>632</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>80</v>
@@ -29726,22 +29695,22 @@
         <v>79</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK229" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL229" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="AM229" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="AN229" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO229" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
     </row>
     <row r="230">
@@ -29749,11 +29718,11 @@
         <v>808</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
-        <v>620</v>
+        <v>79</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s" s="2">
@@ -29772,20 +29741,18 @@
         <v>79</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>106</v>
+        <v>605</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>621</v>
+        <v>698</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>622</v>
+        <v>699</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="O230" t="s" s="2">
-        <v>624</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="O230" s="2"/>
       <c r="P230" t="s" s="2">
         <v>79</v>
       </c>
@@ -29833,7 +29800,7 @@
         <v>79</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>80</v>
@@ -29851,10 +29818,10 @@
         <v>79</v>
       </c>
       <c r="AL230" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="AM230" t="s" s="2">
-        <v>419</v>
+        <v>638</v>
       </c>
       <c r="AN230" t="s" s="2">
         <v>79</v>
@@ -29868,7 +29835,7 @@
         <v>809</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -29876,7 +29843,7 @@
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G231" t="s" s="2">
         <v>92</v>
@@ -29891,20 +29858,18 @@
         <v>79</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="O231" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
         <v>79</v>
       </c>
@@ -29913,7 +29878,7 @@
         <v>79</v>
       </c>
       <c r="S231" t="s" s="2">
-        <v>810</v>
+        <v>79</v>
       </c>
       <c r="T231" t="s" s="2">
         <v>79</v>
@@ -29928,13 +29893,13 @@
         <v>79</v>
       </c>
       <c r="X231" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="Y231" t="s" s="2">
-        <v>630</v>
+        <v>79</v>
       </c>
       <c r="Z231" t="s" s="2">
-        <v>631</v>
+        <v>79</v>
       </c>
       <c r="AA231" t="s" s="2">
         <v>79</v>
@@ -29952,7 +29917,7 @@
         <v>79</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>80</v>
@@ -29961,7 +29926,7 @@
         <v>92</v>
       </c>
       <c r="AI231" t="s" s="2">
-        <v>79</v>
+        <v>643</v>
       </c>
       <c r="AJ231" t="s" s="2">
         <v>104</v>
@@ -29970,10 +29935,10 @@
         <v>79</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>273</v>
+        <v>644</v>
       </c>
       <c r="AM231" t="s" s="2">
-        <v>274</v>
+        <v>644</v>
       </c>
       <c r="AN231" t="s" s="2">
         <v>79</v>
@@ -29984,10 +29949,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>812</v>
+        <v>645</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -30010,16 +29975,20 @@
         <v>79</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>107</v>
+        <v>646</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N232" s="2"/>
-      <c r="O232" s="2"/>
+        <v>647</v>
+      </c>
+      <c r="N232" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="O232" t="s" s="2">
+        <v>649</v>
+      </c>
       <c r="P232" t="s" s="2">
         <v>79</v>
       </c>
@@ -30043,13 +30012,13 @@
         <v>79</v>
       </c>
       <c r="X232" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="Y232" t="s" s="2">
-        <v>79</v>
+        <v>651</v>
       </c>
       <c r="Z232" t="s" s="2">
-        <v>79</v>
+        <v>652</v>
       </c>
       <c r="AA232" t="s" s="2">
         <v>79</v>
@@ -30067,7 +30036,7 @@
         <v>79</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>109</v>
+        <v>645</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>80</v>
@@ -30079,41 +30048,41 @@
         <v>79</v>
       </c>
       <c r="AJ232" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AK232" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL232" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AM232" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AM232" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AN232" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO232" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>814</v>
+        <v>654</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G233" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H233" t="s" s="2">
         <v>79</v>
@@ -30125,18 +30094,20 @@
         <v>79</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>346</v>
+        <v>704</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>347</v>
+        <v>705</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O233" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="O233" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="P233" t="s" s="2">
         <v>79</v>
       </c>
@@ -30160,52 +30131,52 @@
         <v>79</v>
       </c>
       <c r="X233" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Y233" t="s" s="2">
-        <v>79</v>
+        <v>657</v>
       </c>
       <c r="Z233" t="s" s="2">
-        <v>79</v>
+        <v>658</v>
       </c>
       <c r="AA233" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB233" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AC233" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AD233" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>118</v>
+        <v>654</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH233" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI233" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ233" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK233" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL233" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AM233" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AM233" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN233" t="s" s="2">
         <v>79</v>
@@ -30216,10 +30187,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>816</v>
+        <v>660</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -30230,7 +30201,7 @@
         <v>92</v>
       </c>
       <c r="G234" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H234" t="s" s="2">
         <v>79</v>
@@ -30239,23 +30210,21 @@
         <v>79</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>138</v>
+        <v>813</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>280</v>
+        <v>661</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>281</v>
+        <v>662</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O234" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="O234" s="2"/>
       <c r="P234" t="s" s="2">
         <v>79</v>
       </c>
@@ -30303,7 +30272,7 @@
         <v>79</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>284</v>
+        <v>660</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>80</v>
@@ -30312,7 +30281,7 @@
         <v>81</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>79</v>
+        <v>664</v>
       </c>
       <c r="AJ234" t="s" s="2">
         <v>104</v>
@@ -30321,10 +30290,10 @@
         <v>79</v>
       </c>
       <c r="AL234" t="s" s="2">
-        <v>285</v>
+        <v>665</v>
       </c>
       <c r="AM234" t="s" s="2">
-        <v>79</v>
+        <v>666</v>
       </c>
       <c r="AN234" t="s" s="2">
         <v>79</v>
@@ -30335,10 +30304,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>818</v>
+        <v>673</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -30358,22 +30327,22 @@
         <v>79</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>317</v>
+        <v>674</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>318</v>
+        <v>675</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>319</v>
+        <v>676</v>
       </c>
       <c r="O235" t="s" s="2">
-        <v>320</v>
+        <v>677</v>
       </c>
       <c r="P235" t="s" s="2">
         <v>79</v>
@@ -30398,13 +30367,13 @@
         <v>79</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Y235" t="s" s="2">
-        <v>79</v>
+        <v>678</v>
       </c>
       <c r="Z235" t="s" s="2">
-        <v>79</v>
+        <v>679</v>
       </c>
       <c r="AA235" t="s" s="2">
         <v>79</v>
@@ -30422,7 +30391,7 @@
         <v>79</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>321</v>
+        <v>673</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>80</v>
@@ -30431,7 +30400,7 @@
         <v>92</v>
       </c>
       <c r="AI235" t="s" s="2">
-        <v>79</v>
+        <v>664</v>
       </c>
       <c r="AJ235" t="s" s="2">
         <v>104</v>
@@ -30440,10 +30409,10 @@
         <v>79</v>
       </c>
       <c r="AL235" t="s" s="2">
-        <v>322</v>
+        <v>680</v>
       </c>
       <c r="AM235" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AN235" t="s" s="2">
         <v>79</v>
@@ -30454,10 +30423,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>632</v>
+        <v>681</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -30480,18 +30449,18 @@
         <v>79</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>633</v>
+        <v>79</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>634</v>
+        <v>682</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="N236" s="2"/>
-      <c r="O236" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="N236" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="O236" s="2"/>
       <c r="P236" t="s" s="2">
         <v>79</v>
       </c>
@@ -30539,7 +30508,7 @@
         <v>79</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>632</v>
+        <v>681</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>80</v>
@@ -30548,7 +30517,7 @@
         <v>81</v>
       </c>
       <c r="AI236" t="s" s="2">
-        <v>79</v>
+        <v>643</v>
       </c>
       <c r="AJ236" t="s" s="2">
         <v>104</v>
@@ -30557,840 +30526,15 @@
         <v>79</v>
       </c>
       <c r="AL236" t="s" s="2">
-        <v>399</v>
+        <v>614</v>
       </c>
       <c r="AM236" t="s" s="2">
-        <v>400</v>
+        <v>685</v>
       </c>
       <c r="AN236" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO236" t="s" s="2">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s" s="2">
-        <v>820</v>
-      </c>
-      <c r="B237" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="C237" s="2"/>
-      <c r="D237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E237" s="2"/>
-      <c r="F237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G237" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K237" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="L237" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="M237" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="O237" s="2"/>
-      <c r="P237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q237" s="2"/>
-      <c r="R237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF237" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AG237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH237" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ237" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM237" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AN237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO237" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="B238" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="C238" s="2"/>
-      <c r="D238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E238" s="2"/>
-      <c r="F238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G238" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K238" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="L238" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="M238" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N238" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="O238" s="2"/>
-      <c r="P238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q238" s="2"/>
-      <c r="R238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF238" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AG238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH238" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI238" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="AJ238" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL238" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AM238" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AN238" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO238" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="B239" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="C239" s="2"/>
-      <c r="D239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E239" s="2"/>
-      <c r="F239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G239" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K239" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L239" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="M239" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="N239" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="O239" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="P239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q239" s="2"/>
-      <c r="R239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X239" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="Y239" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="Z239" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AA239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF239" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="AG239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH239" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ239" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL239" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="AM239" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AN239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO239" t="s" s="2">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="B240" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="C240" s="2"/>
-      <c r="D240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E240" s="2"/>
-      <c r="F240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G240" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K240" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="L240" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M240" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="O240" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="P240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q240" s="2"/>
-      <c r="R240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X240" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y240" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="Z240" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="AA240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF240" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="AG240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH240" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ240" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL240" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="AM240" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AN240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO240" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s" s="2">
-        <v>824</v>
-      </c>
-      <c r="B241" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="C241" s="2"/>
-      <c r="D241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E241" s="2"/>
-      <c r="F241" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G241" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K241" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="L241" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="M241" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="O241" s="2"/>
-      <c r="P241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q241" s="2"/>
-      <c r="R241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF241" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="AG241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH241" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI241" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="AJ241" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL241" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="AM241" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="AN241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO241" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="B242" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="C242" s="2"/>
-      <c r="D242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E242" s="2"/>
-      <c r="F242" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G242" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K242" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="L242" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="M242" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N242" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="O242" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="P242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q242" s="2"/>
-      <c r="R242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X242" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y242" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="Z242" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="AA242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF242" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="AG242" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH242" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI242" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="AJ242" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL242" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="AM242" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AN242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO242" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s" s="2">
-        <v>827</v>
-      </c>
-      <c r="B243" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="C243" s="2"/>
-      <c r="D243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E243" s="2"/>
-      <c r="F243" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G243" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L243" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="M243" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="N243" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="O243" s="2"/>
-      <c r="P243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q243" s="2"/>
-      <c r="R243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF243" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="AG243" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH243" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI243" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="AJ243" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL243" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AM243" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="AN243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO243" t="s" s="2">
         <v>79</v>
       </c>
     </row>
